--- a/Data/Campaign 1_Deals.xlsx
+++ b/Data/Campaign 1_Deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarshvirendranigam/Desktop/Summer 2020/Visualization of Complex Data/Project/Project 2/Raw Data/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E879723-8BCA-DA47-BE12-41D73E56DE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B391EEA-73B1-9946-845B-0F727AC3EFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trended" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Geo Location" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Peak Sale Hours'!$A$2:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Peak Sale Hours'!$A$1:$E$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trended!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>Revenue</t>
   </si>
@@ -290,28 +290,13 @@
   </si>
   <si>
     <t>Straight Talk Prepaid Apple iPhone 6 32GB, Space Gray Product 329264833</t>
-  </si>
-  <si>
-    <t>Wednesday before Thanksgiving 2019</t>
-  </si>
-  <si>
-    <t>Thanksgiving 2019</t>
-  </si>
-  <si>
-    <t>Cyber Monday 2019</t>
-  </si>
-  <si>
-    <t>Black Friday 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +427,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -789,11 +780,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1162,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2042,6 +2032,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2049,14 +2040,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -2070,7 +2064,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>43770</v>
       </c>
       <c r="B2">
@@ -2084,7 +2078,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>43771</v>
       </c>
       <c r="B3">
@@ -2098,7 +2092,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>43772</v>
       </c>
       <c r="B4">
@@ -2112,7 +2106,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>43773</v>
       </c>
       <c r="B5">
@@ -2126,7 +2120,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>43774</v>
       </c>
       <c r="B6">
@@ -2140,7 +2134,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>43775</v>
       </c>
       <c r="B7">
@@ -2154,7 +2148,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>43776</v>
       </c>
       <c r="B8">
@@ -2168,7 +2162,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>43777</v>
       </c>
       <c r="B9">
@@ -2182,7 +2176,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>43778</v>
       </c>
       <c r="B10">
@@ -2196,7 +2190,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>43779</v>
       </c>
       <c r="B11">
@@ -2210,7 +2204,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>43780</v>
       </c>
       <c r="B12">
@@ -2224,7 +2218,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>43781</v>
       </c>
       <c r="B13">
@@ -2238,7 +2232,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>43782</v>
       </c>
       <c r="B14">
@@ -2252,7 +2246,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>43783</v>
       </c>
       <c r="B15">
@@ -2266,7 +2260,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>43784</v>
       </c>
       <c r="B16">
@@ -2280,7 +2274,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>43785</v>
       </c>
       <c r="B17">
@@ -2294,7 +2288,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>43786</v>
       </c>
       <c r="B18">
@@ -2308,7 +2302,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>43787</v>
       </c>
       <c r="B19">
@@ -2322,7 +2316,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>43788</v>
       </c>
       <c r="B20">
@@ -2336,7 +2330,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>43789</v>
       </c>
       <c r="B21">
@@ -2350,7 +2344,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>43790</v>
       </c>
       <c r="B22">
@@ -2364,7 +2358,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>43791</v>
       </c>
       <c r="B23">
@@ -2378,7 +2372,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>43792</v>
       </c>
       <c r="B24">
@@ -2392,7 +2386,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>43793</v>
       </c>
       <c r="B25">
@@ -2406,7 +2400,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>43794</v>
       </c>
       <c r="B26">
@@ -2420,7 +2414,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>43795</v>
       </c>
       <c r="B27">
@@ -2434,7 +2428,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>43796</v>
       </c>
       <c r="B28">
@@ -2448,7 +2442,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>43797</v>
       </c>
       <c r="B29">
@@ -2462,7 +2456,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>43798</v>
       </c>
       <c r="B30">
@@ -2476,7 +2470,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>43799</v>
       </c>
       <c r="B31">
@@ -2490,7 +2484,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>43800</v>
       </c>
       <c r="B32">
@@ -2504,7 +2498,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>43801</v>
       </c>
       <c r="B33">
@@ -2518,7 +2512,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>43802</v>
       </c>
       <c r="B34">
@@ -2532,7 +2526,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>43803</v>
       </c>
       <c r="B35">
@@ -2546,7 +2540,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>43804</v>
       </c>
       <c r="B36">
@@ -2560,7 +2554,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>43805</v>
       </c>
       <c r="B37">
@@ -2574,7 +2568,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>43806</v>
       </c>
       <c r="B38">
@@ -2588,7 +2582,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>43807</v>
       </c>
       <c r="B39">
@@ -2602,7 +2596,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>43808</v>
       </c>
       <c r="B40">
@@ -2616,7 +2610,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>43809</v>
       </c>
       <c r="B41">
@@ -2630,7 +2624,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>43810</v>
       </c>
       <c r="B42">
@@ -2644,7 +2638,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>43811</v>
       </c>
       <c r="B43">
@@ -2658,7 +2652,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>43812</v>
       </c>
       <c r="B44">
@@ -2672,7 +2666,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>43813</v>
       </c>
       <c r="B45">
@@ -2686,7 +2680,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>43814</v>
       </c>
       <c r="B46">
@@ -2700,7 +2694,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>43815</v>
       </c>
       <c r="B47">
@@ -2714,7 +2708,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>43816</v>
       </c>
       <c r="B48">
@@ -2728,7 +2722,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>43817</v>
       </c>
       <c r="B49">
@@ -2742,7 +2736,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>43818</v>
       </c>
       <c r="B50">
@@ -2756,7 +2750,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>43819</v>
       </c>
       <c r="B51">
@@ -2770,7 +2764,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>43820</v>
       </c>
       <c r="B52">
@@ -2784,7 +2778,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>43821</v>
       </c>
       <c r="B53">
@@ -2798,7 +2792,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>43822</v>
       </c>
       <c r="B54">
@@ -2812,7 +2806,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>43823</v>
       </c>
       <c r="B55">
@@ -2826,7 +2820,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>43824</v>
       </c>
       <c r="B56">
@@ -2840,7 +2834,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>43825</v>
       </c>
       <c r="B57">
@@ -2854,7 +2848,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>43826</v>
       </c>
       <c r="B58">
@@ -2868,7 +2862,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>43827</v>
       </c>
       <c r="B59">
@@ -2882,7 +2876,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>43828</v>
       </c>
       <c r="B60">
@@ -2896,7 +2890,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>43829</v>
       </c>
       <c r="B61">
@@ -2910,7 +2904,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>43830</v>
       </c>
       <c r="B62">
@@ -2933,7 +2927,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2958,7 +2952,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2972,7 +2966,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2986,7 +2980,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -3000,7 +2994,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -3014,7 +3008,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -3028,7 +3022,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -3042,7 +3036,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -3056,7 +3050,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -3070,7 +3064,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -3084,7 +3078,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -3098,7 +3092,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -3112,7 +3106,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -3126,7 +3120,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3140,7 +3134,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -3154,7 +3148,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
@@ -3168,7 +3162,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -3182,7 +3176,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -3196,7 +3190,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -3210,7 +3204,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -3224,7 +3218,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -3237,16 +3231,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:I98"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3254,2342 +3250,2341 @@
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>49889</v>
+      </c>
+      <c r="D2">
+        <v>5003</v>
+      </c>
+      <c r="E2">
+        <v>1.27883902263023E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>240859</v>
+      </c>
+      <c r="G2" s="6">
+        <v>25686</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.47825090507581E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.10664330583453389</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3">
-        <v>49889</v>
+        <v>47422</v>
       </c>
       <c r="D3">
-        <v>5003</v>
+        <v>5423</v>
       </c>
       <c r="E3">
-        <v>1.27883902263023E-2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>240859</v>
-      </c>
-      <c r="G3" s="7">
-        <v>25686</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1.4782509050758124E-2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.10664330583453389</v>
-      </c>
+        <v>1.61950149719539E-2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4">
-        <v>47422</v>
+        <v>57420</v>
       </c>
       <c r="D4">
-        <v>5423</v>
+        <v>6251</v>
       </c>
       <c r="E4">
-        <v>1.61950149719539E-2</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+        <v>1.5482410309996499E-2</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C5">
-        <v>57420</v>
+        <v>86128</v>
       </c>
       <c r="D5">
-        <v>6251</v>
+        <v>9009</v>
       </c>
       <c r="E5">
-        <v>1.5482410309996499E-2</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>1.46642206947798E-2</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C6">
-        <v>86128</v>
+        <v>144538</v>
       </c>
       <c r="D6">
-        <v>9009</v>
+        <v>14528</v>
       </c>
       <c r="E6">
-        <v>1.46642206947798E-2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>1.4314574713915999E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1067016</v>
+      </c>
+      <c r="G6" s="6">
+        <v>112196</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.6438881314577675E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.10514931359979607</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C7">
-        <v>144538</v>
+        <v>258940</v>
       </c>
       <c r="D7">
-        <v>14528</v>
+        <v>24992</v>
       </c>
       <c r="E7">
-        <v>1.4314574713915999E-2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1067016</v>
-      </c>
-      <c r="G7" s="7">
-        <v>112196</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1.6438881314577675E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.10514931359979607</v>
-      </c>
+        <v>1.46404572487835E-2</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C8">
-        <v>258940</v>
+        <v>340277</v>
       </c>
       <c r="D8">
-        <v>24992</v>
+        <v>35115</v>
       </c>
       <c r="E8">
-        <v>1.46404572487835E-2</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>1.6621752278290901E-2</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C9">
-        <v>340277</v>
+        <v>323261</v>
       </c>
       <c r="D9">
-        <v>35115</v>
+        <v>37561</v>
       </c>
       <c r="E9">
-        <v>1.6621752278290901E-2</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>2.0178741017320301E-2</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C10">
-        <v>323261</v>
+        <v>296988</v>
       </c>
       <c r="D10">
-        <v>37561</v>
+        <v>36609</v>
       </c>
       <c r="E10">
-        <v>2.0178741017320301E-2</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+        <v>2.1499185152261999E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1078257</v>
+      </c>
+      <c r="G10" s="6">
+        <v>136822</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.2491596454275176E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.12689182634566712</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C11">
-        <v>296988</v>
+        <v>272762</v>
       </c>
       <c r="D11">
-        <v>36609</v>
+        <v>35980</v>
       </c>
       <c r="E11">
-        <v>2.1499185152261999E-2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1078257</v>
-      </c>
-      <c r="G11" s="7">
-        <v>136822</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2.2491596454275176E-2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.12689182634566712</v>
-      </c>
+        <v>2.49374912927753E-2</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C12">
-        <v>272762</v>
+        <v>259575</v>
       </c>
       <c r="D12">
-        <v>35980</v>
+        <v>33039</v>
       </c>
       <c r="E12">
-        <v>2.49374912927753E-2</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>2.2086102282577201E-2</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C13">
-        <v>259575</v>
+        <v>248932</v>
       </c>
       <c r="D13">
-        <v>33039</v>
+        <v>31194</v>
       </c>
       <c r="E13">
-        <v>2.2086102282577201E-2</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+        <v>2.14436070894862E-2</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>248932</v>
+        <v>249801</v>
       </c>
       <c r="D14">
-        <v>31194</v>
+        <v>31060</v>
       </c>
       <c r="E14">
-        <v>2.14436070894862E-2</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>2.0912646466587401E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1329078</v>
+      </c>
+      <c r="G14" s="6">
+        <v>156195</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.7572823984571675E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.11752131929051568</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C15">
-        <v>249801</v>
+        <v>278680</v>
       </c>
       <c r="D15">
-        <v>31060</v>
+        <v>32492</v>
       </c>
       <c r="E15">
-        <v>2.0912646466587401E-2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1329078</v>
-      </c>
-      <c r="G15" s="7">
-        <v>156195</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1.7572823984571675E-2</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.11752131929051568</v>
-      </c>
+        <v>1.8160614324673401E-2</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C16">
-        <v>278680</v>
+        <v>361276</v>
       </c>
       <c r="D16">
-        <v>32492</v>
+        <v>39131</v>
       </c>
       <c r="E16">
-        <v>1.8160614324673401E-2</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+        <v>1.5603029262945701E-2</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>361276</v>
+        <v>439321</v>
       </c>
       <c r="D17">
-        <v>39131</v>
+        <v>53512</v>
       </c>
       <c r="E17">
-        <v>1.5603029262945701E-2</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+        <v>1.5615005884080199E-2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C18">
-        <v>439321</v>
+        <v>516698</v>
       </c>
       <c r="D18">
-        <v>53512</v>
+        <v>74020</v>
       </c>
       <c r="E18">
-        <v>1.5615005884080199E-2</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+        <v>2.2314775749083599E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3271499</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1012206</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5.1073337594226748E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.3094012866884569</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C19">
-        <v>516698</v>
+        <v>576169</v>
       </c>
       <c r="D19">
-        <v>74020</v>
+        <v>93845</v>
       </c>
       <c r="E19">
-        <v>2.2314775749083599E-2</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3271499</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1012206</v>
-      </c>
-      <c r="H19" s="6">
-        <v>5.1073337594226748E-2</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.3094012866884569</v>
-      </c>
+        <v>2.2722499822100801E-2</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>576169</v>
+        <v>848355</v>
       </c>
       <c r="D20">
-        <v>93845</v>
+        <v>282474</v>
       </c>
       <c r="E20">
-        <v>2.2722499822100801E-2</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+        <v>4.3531304701451598E-2</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C21">
-        <v>848355</v>
+        <v>1330277</v>
       </c>
       <c r="D21">
-        <v>282474</v>
+        <v>561867</v>
       </c>
       <c r="E21">
-        <v>4.3531304701451598E-2</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+        <v>0.115724770104271</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C22">
-        <v>1330277</v>
+        <v>941721</v>
       </c>
       <c r="D22">
-        <v>561867</v>
+        <v>379423</v>
       </c>
       <c r="E22">
-        <v>0.115724770104271</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+        <v>0.18837213994378299</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2122013</v>
+      </c>
+      <c r="G22" s="6">
+        <v>701612</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.14403189779854128</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.33063510920998129</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="C23">
-        <v>941721</v>
+        <v>564210</v>
       </c>
       <c r="D23">
-        <v>379423</v>
+        <v>190373</v>
       </c>
       <c r="E23">
-        <v>0.18837213994378299</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2122013</v>
-      </c>
-      <c r="G23" s="7">
-        <v>701612</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.14403189779854128</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.33063510920998129</v>
-      </c>
+        <v>0.21189096258485299</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C24">
-        <v>564210</v>
+        <v>355505</v>
       </c>
       <c r="D24">
-        <v>190373</v>
+        <v>86961</v>
       </c>
       <c r="E24">
-        <v>0.21189096258485299</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>0.10546687107073</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C25">
-        <v>355505</v>
+        <v>260577</v>
       </c>
       <c r="D25">
-        <v>86961</v>
+        <v>44855</v>
       </c>
       <c r="E25">
-        <v>0.10546687107073</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>7.0397617594799206E-2</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>260577</v>
+        <v>100413</v>
       </c>
       <c r="D26">
-        <v>44855</v>
+        <v>11282</v>
       </c>
       <c r="E26">
-        <v>7.0397617594799206E-2</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+        <v>3.1181221554977899E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>500679</v>
+      </c>
+      <c r="G26" s="6">
+        <v>58905</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3.099867163159005E-2</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.11765023098632058</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27">
-        <v>100413</v>
+        <v>85950</v>
       </c>
       <c r="D27">
-        <v>11282</v>
+        <v>11455</v>
       </c>
       <c r="E27">
-        <v>3.1181221554977899E-2</v>
-      </c>
-      <c r="F27" s="7">
-        <v>500679</v>
-      </c>
-      <c r="G27" s="7">
-        <v>58905</v>
-      </c>
-      <c r="H27" s="6">
-        <v>3.099867163159005E-2</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.11765023098632058</v>
-      </c>
+        <v>3.4392088423501999E-2</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28">
-        <v>85950</v>
+        <v>113760</v>
       </c>
       <c r="D28">
-        <v>11455</v>
+        <v>13653</v>
       </c>
       <c r="E28">
-        <v>3.4392088423501999E-2</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+        <v>2.9307313642756599E-2</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C29">
-        <v>113760</v>
+        <v>200556</v>
       </c>
       <c r="D29">
-        <v>13653</v>
+        <v>22515</v>
       </c>
       <c r="E29">
-        <v>2.9307313642756599E-2</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+        <v>2.9114062905123701E-2</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C30">
-        <v>200556</v>
+        <v>322486</v>
       </c>
       <c r="D30">
-        <v>22515</v>
+        <v>37747</v>
       </c>
       <c r="E30">
-        <v>2.9114062905123701E-2</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+        <v>3.25409475140006E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2109489</v>
+      </c>
+      <c r="G30" s="6">
+        <v>298875</v>
+      </c>
+      <c r="H30" s="5">
+        <v>3.8899483408986975E-2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.14168123180542777</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C31">
-        <v>322486</v>
+        <v>484568</v>
       </c>
       <c r="D31">
-        <v>37747</v>
+        <v>62248</v>
       </c>
       <c r="E31">
-        <v>3.25409475140006E-2</v>
-      </c>
-      <c r="F31" s="7">
-        <v>2109489</v>
-      </c>
-      <c r="G31" s="7">
-        <v>298875</v>
-      </c>
-      <c r="H31" s="6">
-        <v>3.8899483408986975E-2</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.14168123180542777</v>
-      </c>
+        <v>3.4818642584735202E-2</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C32">
-        <v>484568</v>
+        <v>634857</v>
       </c>
       <c r="D32">
-        <v>62248</v>
+        <v>91859</v>
       </c>
       <c r="E32">
-        <v>3.4818642584735202E-2</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+        <v>4.0921026309861899E-2</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C33">
-        <v>634857</v>
+        <v>667578</v>
       </c>
       <c r="D33">
-        <v>91859</v>
+        <v>107021</v>
       </c>
       <c r="E33">
-        <v>4.0921026309861899E-2</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+        <v>4.7317317227350199E-2</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C34">
-        <v>667578</v>
+        <v>579651</v>
       </c>
       <c r="D34">
-        <v>107021</v>
+        <v>103426</v>
       </c>
       <c r="E34">
-        <v>4.7317317227350199E-2</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>5.3368319902838003E-2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2031323</v>
+      </c>
+      <c r="G34" s="6">
+        <v>392267</v>
+      </c>
+      <c r="H34" s="5">
+        <v>5.8224572745338425E-2</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.193109121493726</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C35">
-        <v>579651</v>
+        <v>510679</v>
       </c>
       <c r="D35">
-        <v>103426</v>
+        <v>99814</v>
       </c>
       <c r="E35">
-        <v>5.3368319902838003E-2</v>
-      </c>
-      <c r="F35" s="7">
-        <v>2031323</v>
-      </c>
-      <c r="G35" s="7">
-        <v>392267</v>
-      </c>
-      <c r="H35" s="6">
-        <v>5.8224572745338425E-2</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0.193109121493726</v>
-      </c>
+        <v>6.2283743799921201E-2</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C36">
-        <v>510679</v>
+        <v>475848</v>
       </c>
       <c r="D36">
-        <v>99814</v>
+        <v>93035</v>
       </c>
       <c r="E36">
-        <v>6.2283743799921201E-2</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+        <v>5.8348464215463698E-2</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C37">
-        <v>475848</v>
+        <v>465145</v>
       </c>
       <c r="D37">
-        <v>93035</v>
+        <v>95992</v>
       </c>
       <c r="E37">
-        <v>5.8348464215463698E-2</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+        <v>5.8897763063130798E-2</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C38">
-        <v>465145</v>
+        <v>493637</v>
       </c>
       <c r="D38">
-        <v>95992</v>
+        <v>102767</v>
       </c>
       <c r="E38">
-        <v>5.8897763063130798E-2</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+        <v>5.9776718519884003E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1963701</v>
+      </c>
+      <c r="G38" s="6">
+        <v>392507</v>
+      </c>
+      <c r="H38" s="5">
+        <v>5.9677882938271254E-2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.19988124464977103</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C39">
-        <v>493637</v>
+        <v>511261</v>
       </c>
       <c r="D39">
-        <v>102767</v>
+        <v>99714</v>
       </c>
       <c r="E39">
-        <v>5.9776718519884003E-2</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1963701</v>
-      </c>
-      <c r="G39" s="7">
-        <v>392507</v>
-      </c>
-      <c r="H39" s="6">
-        <v>5.9677882938271254E-2</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0.19988124464977103</v>
-      </c>
+        <v>5.8964012510244197E-2</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C40">
-        <v>511261</v>
+        <v>482727</v>
       </c>
       <c r="D40">
-        <v>99714</v>
+        <v>93428</v>
       </c>
       <c r="E40">
-        <v>5.8964012510244197E-2</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+        <v>5.83041760663894E-2</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C41">
-        <v>482727</v>
+        <v>476076</v>
       </c>
       <c r="D41">
-        <v>93428</v>
+        <v>96598</v>
       </c>
       <c r="E41">
-        <v>5.83041760663894E-2</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+        <v>6.1666624656567401E-2</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C42">
-        <v>476076</v>
+        <v>485345</v>
       </c>
       <c r="D42">
-        <v>96598</v>
+        <v>104706</v>
       </c>
       <c r="E42">
-        <v>6.1666624656567401E-2</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+        <v>6.8860295253891493E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2035959</v>
+      </c>
+      <c r="G42" s="6">
+        <v>445400</v>
+      </c>
+      <c r="H42" s="5">
+        <v>7.8350219392515644E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.21876668439786853</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C43">
-        <v>485345</v>
+        <v>522917</v>
       </c>
       <c r="D43">
-        <v>104706</v>
+        <v>112940</v>
       </c>
       <c r="E43">
-        <v>6.8860295253891493E-2</v>
-      </c>
-      <c r="F43" s="7">
-        <v>2035959</v>
-      </c>
-      <c r="G43" s="7">
-        <v>445400</v>
-      </c>
-      <c r="H43" s="6">
-        <v>7.8350219392515644E-2</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0.21876668439786853</v>
-      </c>
+        <v>7.5262422143475893E-2</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C44">
-        <v>522917</v>
+        <v>538216</v>
       </c>
       <c r="D44">
-        <v>112940</v>
+        <v>118050</v>
       </c>
       <c r="E44">
-        <v>7.5262422143475893E-2</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+        <v>8.1123563773652194E-2</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C45">
-        <v>538216</v>
+        <v>489481</v>
       </c>
       <c r="D45">
-        <v>118050</v>
+        <v>109704</v>
       </c>
       <c r="E45">
-        <v>8.1123563773652194E-2</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+        <v>8.8154596399042995E-2</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C46">
-        <v>489481</v>
+        <v>367683</v>
       </c>
       <c r="D46">
-        <v>109704</v>
+        <v>87323</v>
       </c>
       <c r="E46">
-        <v>8.8154596399042995E-2</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+        <v>0.107105849332169</v>
+      </c>
+      <c r="F46" s="6">
+        <v>766565</v>
+      </c>
+      <c r="G46" s="6">
+        <v>186371</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.10755969653509276</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.24312484916478055</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="C47">
-        <v>367683</v>
+        <v>213994</v>
       </c>
       <c r="D47">
-        <v>87323</v>
+        <v>54010</v>
       </c>
       <c r="E47">
-        <v>0.107105849332169</v>
-      </c>
-      <c r="F47" s="7">
-        <v>766565</v>
-      </c>
-      <c r="G47" s="7">
-        <v>186371</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0.10755969653509276</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0.24312484916478055</v>
-      </c>
+        <v>0.112049870557118</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C48">
-        <v>213994</v>
+        <v>118742</v>
       </c>
       <c r="D48">
-        <v>54010</v>
+        <v>29921</v>
       </c>
       <c r="E48">
-        <v>0.112049870557118</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+        <v>0.105800811844166</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C49">
-        <v>118742</v>
+        <v>66146</v>
       </c>
       <c r="D49">
-        <v>29921</v>
+        <v>15117</v>
       </c>
       <c r="E49">
-        <v>0.105800811844166</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+        <v>0.105282254406918</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>66146</v>
+        <v>198405</v>
       </c>
       <c r="D50">
-        <v>15117</v>
+        <v>25393</v>
       </c>
       <c r="E50">
-        <v>0.105282254406918</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+        <v>4.4706534613543E-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>808248</v>
+      </c>
+      <c r="G50" s="6">
+        <v>115918</v>
+      </c>
+      <c r="H50" s="5">
+        <v>4.8206254090511172E-2</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.14341885163959578</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C51">
-        <v>198405</v>
+        <v>165654</v>
       </c>
       <c r="D51">
-        <v>25393</v>
+        <v>25419</v>
       </c>
       <c r="E51">
-        <v>4.4706534613543E-2</v>
-      </c>
-      <c r="F51" s="7">
-        <v>808248</v>
-      </c>
-      <c r="G51" s="7">
-        <v>115918</v>
-      </c>
-      <c r="H51" s="6">
-        <v>4.8206254090511172E-2</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0.14341885163959578</v>
-      </c>
+        <v>5.1450613930240099E-2</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C52">
-        <v>165654</v>
+        <v>181818</v>
       </c>
       <c r="D52">
-        <v>25419</v>
+        <v>26927</v>
       </c>
       <c r="E52">
-        <v>5.1450613930240099E-2</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+        <v>4.8537548537548499E-2</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C53">
-        <v>181818</v>
+        <v>262371</v>
       </c>
       <c r="D53">
-        <v>26927</v>
+        <v>38179</v>
       </c>
       <c r="E53">
-        <v>4.8537548537548499E-2</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+        <v>4.8130319280713103E-2</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C54">
-        <v>262371</v>
+        <v>402920</v>
       </c>
       <c r="D54">
-        <v>38179</v>
+        <v>56772</v>
       </c>
       <c r="E54">
-        <v>4.8130319280713103E-2</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+        <v>4.9764221185346902E-2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2315328</v>
+      </c>
+      <c r="G54" s="6">
+        <v>308385</v>
+      </c>
+      <c r="H54" s="5">
+        <v>4.8688622449155228E-2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.1331927916908533</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C55">
-        <v>402920</v>
+        <v>537245</v>
       </c>
       <c r="D55">
-        <v>56772</v>
+        <v>74411</v>
       </c>
       <c r="E55">
-        <v>4.9764221185346902E-2</v>
-      </c>
-      <c r="F55" s="7">
-        <v>2315328</v>
-      </c>
-      <c r="G55" s="7">
-        <v>308385</v>
-      </c>
-      <c r="H55" s="6">
-        <v>4.8688622449155228E-2</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0.1331927916908533</v>
-      </c>
+        <v>5.0202421613975E-2</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C56">
-        <v>537245</v>
+        <v>622932</v>
       </c>
       <c r="D56">
-        <v>74411</v>
+        <v>84633</v>
       </c>
       <c r="E56">
-        <v>5.0202421613975E-2</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+        <v>5.0281571664322899E-2</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C57">
-        <v>622932</v>
+        <v>752231</v>
       </c>
       <c r="D57">
-        <v>84633</v>
+        <v>92569</v>
       </c>
       <c r="E57">
-        <v>5.0281571664322899E-2</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+        <v>4.4506275332976103E-2</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C58">
-        <v>752231</v>
+        <v>761890</v>
       </c>
       <c r="D58">
-        <v>92569</v>
+        <v>90911</v>
       </c>
       <c r="E58">
-        <v>4.4506275332976103E-2</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+        <v>4.3704471774140601E-2</v>
+      </c>
+      <c r="F58" s="6">
+        <v>2466300</v>
+      </c>
+      <c r="G58" s="6">
+        <v>311238</v>
+      </c>
+      <c r="H58" s="5">
+        <v>4.6929285371849525E-2</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.12619632648096338</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C59">
-        <v>761890</v>
+        <v>593655</v>
       </c>
       <c r="D59">
-        <v>90911</v>
+        <v>80260</v>
       </c>
       <c r="E59">
-        <v>4.3704471774140601E-2</v>
-      </c>
-      <c r="F59" s="7">
-        <v>2466300</v>
-      </c>
-      <c r="G59" s="7">
-        <v>311238</v>
-      </c>
-      <c r="H59" s="6">
-        <v>4.6929285371849525E-2</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0.12619632648096338</v>
-      </c>
+        <v>5.1961155890205502E-2</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C60">
-        <v>593655</v>
+        <v>553006</v>
       </c>
       <c r="D60">
-        <v>80260</v>
+        <v>73596</v>
       </c>
       <c r="E60">
-        <v>5.1961155890205502E-2</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+        <v>5.03141014744867E-2</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C61">
-        <v>553006</v>
+        <v>557749</v>
       </c>
       <c r="D61">
-        <v>73596</v>
+        <v>66471</v>
       </c>
       <c r="E61">
-        <v>5.03141014744867E-2</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+        <v>4.1737412348565303E-2</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C62">
-        <v>557749</v>
+        <v>668636</v>
       </c>
       <c r="D62">
-        <v>66471</v>
+        <v>67245</v>
       </c>
       <c r="E62">
-        <v>4.1737412348565303E-2</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+        <v>3.31465849879456E-2</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2855443</v>
+      </c>
+      <c r="G62" s="6">
+        <v>281938</v>
+      </c>
+      <c r="H62" s="5">
+        <v>3.2460778783340048E-2</v>
+      </c>
+      <c r="I62" s="5">
+        <v>9.8737043604092259E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C63">
-        <v>668636</v>
+        <v>721506</v>
       </c>
       <c r="D63">
-        <v>67245</v>
+        <v>69456</v>
       </c>
       <c r="E63">
-        <v>3.31465849879456E-2</v>
-      </c>
-      <c r="F63" s="7">
-        <v>2855443</v>
-      </c>
-      <c r="G63" s="7">
-        <v>281938</v>
-      </c>
-      <c r="H63" s="6">
-        <v>3.2460778783340048E-2</v>
-      </c>
-      <c r="I63" s="6">
-        <v>9.8737043604092259E-2</v>
-      </c>
+        <v>3.2380881101473802E-2</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C64">
-        <v>721506</v>
+        <v>718007</v>
       </c>
       <c r="D64">
-        <v>69456</v>
+        <v>69052</v>
       </c>
       <c r="E64">
-        <v>3.2380881101473802E-2</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+        <v>3.1300530496220703E-2</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C65">
-        <v>718007</v>
+        <v>747294</v>
       </c>
       <c r="D65">
-        <v>69052</v>
+        <v>76185</v>
       </c>
       <c r="E65">
-        <v>3.1300530496220703E-2</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+        <v>3.3015118547720101E-2</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C66">
-        <v>747294</v>
+        <v>768834</v>
       </c>
       <c r="D66">
-        <v>76185</v>
+        <v>83848</v>
       </c>
       <c r="E66">
-        <v>3.3015118547720101E-2</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+        <v>3.6495524391481099E-2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>3007763</v>
+      </c>
+      <c r="G66" s="6">
+        <v>372612</v>
+      </c>
+      <c r="H66" s="5">
+        <v>4.0968538971039199E-2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.1238834309751134</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C67">
-        <v>768834</v>
+        <v>793427</v>
       </c>
       <c r="D67">
-        <v>83848</v>
+        <v>97557</v>
       </c>
       <c r="E67">
-        <v>3.6495524391481099E-2</v>
-      </c>
-      <c r="F67" s="7">
-        <v>3007763</v>
-      </c>
-      <c r="G67" s="7">
-        <v>372612</v>
-      </c>
-      <c r="H67" s="6">
-        <v>4.0968538971039199E-2</v>
-      </c>
-      <c r="I67" s="6">
-        <v>0.1238834309751134</v>
-      </c>
+        <v>4.0069218718294101E-2</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C68">
-        <v>793427</v>
+        <v>744858</v>
       </c>
       <c r="D68">
-        <v>97557</v>
+        <v>100080</v>
       </c>
       <c r="E68">
-        <v>4.0069218718294101E-2</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+        <v>4.4266155428282897E-2</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C69">
-        <v>744858</v>
+        <v>700644</v>
       </c>
       <c r="D69">
-        <v>100080</v>
+        <v>91127</v>
       </c>
       <c r="E69">
-        <v>4.4266155428282897E-2</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+        <v>4.30432573460987E-2</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C70">
-        <v>700644</v>
+        <v>704372</v>
       </c>
       <c r="D70">
-        <v>91127</v>
+        <v>79882</v>
       </c>
       <c r="E70">
-        <v>4.30432573460987E-2</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+        <v>3.6719233586797802E-2</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1905666</v>
+      </c>
+      <c r="G70" s="6">
+        <v>214350</v>
+      </c>
+      <c r="H70" s="5">
+        <v>3.7566912521520349E-2</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.11248036119655805</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="C71">
-        <v>704372</v>
+        <v>589940</v>
       </c>
       <c r="D71">
-        <v>79882</v>
+        <v>63541</v>
       </c>
       <c r="E71">
-        <v>3.6719233586797802E-2</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1905666</v>
-      </c>
-      <c r="G71" s="7">
-        <v>214350</v>
-      </c>
-      <c r="H71" s="6">
-        <v>3.7566912521520349E-2</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0.11248036119655805</v>
-      </c>
+        <v>3.51662880970946E-2</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C72">
-        <v>589940</v>
+        <v>373952</v>
       </c>
       <c r="D72">
-        <v>63541</v>
+        <v>44066</v>
       </c>
       <c r="E72">
-        <v>3.51662880970946E-2</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+        <v>3.89595456101317E-2</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C73">
-        <v>373952</v>
+        <v>237402</v>
       </c>
       <c r="D73">
-        <v>44066</v>
+        <v>26861</v>
       </c>
       <c r="E73">
-        <v>3.89595456101317E-2</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+        <v>3.9422582792057299E-2</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>237402</v>
+        <v>188961</v>
       </c>
       <c r="D74">
-        <v>26861</v>
+        <v>16729</v>
       </c>
       <c r="E74">
-        <v>3.9422582792057299E-2</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+        <v>2.5105709643788901E-2</v>
+      </c>
+      <c r="F74" s="6">
+        <v>760146</v>
+      </c>
+      <c r="G74" s="6">
+        <v>77156</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2.7308168319105354E-2</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.10150155364890429</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2">
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C75">
-        <v>188961</v>
+        <v>160878</v>
       </c>
       <c r="D75">
-        <v>16729</v>
+        <v>17025</v>
       </c>
       <c r="E75">
-        <v>2.5105709643788901E-2</v>
-      </c>
-      <c r="F75" s="7">
-        <v>760146</v>
-      </c>
-      <c r="G75" s="7">
-        <v>77156</v>
-      </c>
-      <c r="H75" s="6">
-        <v>2.7308168319105354E-2</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0.10150155364890429</v>
-      </c>
+        <v>2.8381755118785601E-2</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C76">
-        <v>160878</v>
+        <v>172547</v>
       </c>
       <c r="D76">
-        <v>17025</v>
+        <v>17914</v>
       </c>
       <c r="E76">
-        <v>2.8381755118785601E-2</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+        <v>2.6543492497696199E-2</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B77" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C77">
-        <v>172547</v>
+        <v>237760</v>
       </c>
       <c r="D77">
-        <v>17914</v>
+        <v>25488</v>
       </c>
       <c r="E77">
-        <v>2.6543492497696199E-2</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+        <v>2.9201716016150701E-2</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B78" s="2">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C78">
-        <v>237760</v>
+        <v>363754</v>
       </c>
       <c r="D78">
-        <v>25488</v>
+        <v>41883</v>
       </c>
       <c r="E78">
-        <v>2.9201716016150701E-2</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+        <v>3.46168014647261E-2</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2135343</v>
+      </c>
+      <c r="G78" s="6">
+        <v>268380</v>
+      </c>
+      <c r="H78" s="5">
+        <v>4.012930640653415E-2</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.1256847260604034</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C79">
-        <v>363754</v>
+        <v>541524</v>
       </c>
       <c r="D79">
-        <v>41883</v>
+        <v>63335</v>
       </c>
       <c r="E79">
-        <v>3.46168014647261E-2</v>
-      </c>
-      <c r="F79" s="7">
-        <v>2135343</v>
-      </c>
-      <c r="G79" s="7">
-        <v>268380</v>
-      </c>
-      <c r="H79" s="6">
-        <v>4.012930640653415E-2</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0.1256847260604034</v>
-      </c>
+        <v>3.6578249532799999E-2</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="C80">
-        <v>541524</v>
+        <v>630994</v>
       </c>
       <c r="D80">
-        <v>63335</v>
+        <v>79802</v>
       </c>
       <c r="E80">
-        <v>3.6578249532799999E-2</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+        <v>4.15899358789465E-2</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C81">
-        <v>630994</v>
+        <v>599071</v>
       </c>
       <c r="D81">
-        <v>79802</v>
+        <v>83360</v>
       </c>
       <c r="E81">
-        <v>4.15899358789465E-2</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+        <v>4.7732238749664001E-2</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B82" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C82">
-        <v>599071</v>
+        <v>546617</v>
       </c>
       <c r="D82">
-        <v>83360</v>
+        <v>81280</v>
       </c>
       <c r="E82">
-        <v>4.7732238749664001E-2</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+        <v>5.1723601717473103E-2</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1867911</v>
+      </c>
+      <c r="G82" s="6">
+        <v>288777</v>
+      </c>
+      <c r="H82" s="5">
+        <v>5.4513066412519497E-2</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.15459890754966377</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B83" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C83">
-        <v>546617</v>
+        <v>481435</v>
       </c>
       <c r="D83">
-        <v>81280</v>
+        <v>74398</v>
       </c>
       <c r="E83">
-        <v>5.1723601717473103E-2</v>
-      </c>
-      <c r="F83" s="7">
-        <v>1867911</v>
-      </c>
-      <c r="G83" s="7">
-        <v>288777</v>
-      </c>
-      <c r="H83" s="6">
-        <v>5.4513066412519497E-2</v>
-      </c>
-      <c r="I83" s="6">
-        <v>0.15459890754966377</v>
-      </c>
+        <v>5.4547342839635603E-2</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B84" s="2">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C84">
-        <v>481435</v>
+        <v>440771</v>
       </c>
       <c r="D84">
-        <v>74398</v>
+        <v>69317</v>
       </c>
       <c r="E84">
-        <v>5.4547342839635603E-2</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+        <v>5.5212343824797901E-2</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B85" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C85">
-        <v>440771</v>
+        <v>399088</v>
       </c>
       <c r="D85">
-        <v>69317</v>
+        <v>63782</v>
       </c>
       <c r="E85">
-        <v>5.5212343824797901E-2</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+        <v>5.6568977268171401E-2</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B86" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C86">
-        <v>399088</v>
+        <v>361615</v>
       </c>
       <c r="D86">
-        <v>63782</v>
+        <v>58845</v>
       </c>
       <c r="E86">
-        <v>5.6568977268171401E-2</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+        <v>5.6820098723780799E-2</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1402807</v>
+      </c>
+      <c r="G86" s="6">
+        <v>218219</v>
+      </c>
+      <c r="H86" s="5">
+        <v>5.4064327765073569E-2</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.15555881885391218</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B87" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C87">
-        <v>361615</v>
+        <v>341533</v>
       </c>
       <c r="D87">
-        <v>58845</v>
+        <v>55457</v>
       </c>
       <c r="E87">
-        <v>5.6820098723780799E-2</v>
-      </c>
-      <c r="F87" s="7">
-        <v>1402807</v>
-      </c>
-      <c r="G87" s="7">
-        <v>218219</v>
-      </c>
-      <c r="H87" s="6">
-        <v>5.4064327765073569E-2</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0.15555881885391218</v>
-      </c>
+        <v>5.6887621401152999E-2</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B88" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C88">
-        <v>341533</v>
+        <v>338493</v>
       </c>
       <c r="D88">
-        <v>55457</v>
+        <v>51774</v>
       </c>
       <c r="E88">
-        <v>5.6887621401152999E-2</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+        <v>5.3298000254067203E-2</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B89" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C89">
-        <v>338493</v>
+        <v>361166</v>
       </c>
       <c r="D89">
-        <v>51774</v>
+        <v>52143</v>
       </c>
       <c r="E89">
-        <v>5.3298000254067203E-2</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+        <v>4.9251590681293297E-2</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B90" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C90">
-        <v>361166</v>
+        <v>380356</v>
       </c>
       <c r="D90">
-        <v>52143</v>
+        <v>54290</v>
       </c>
       <c r="E90">
-        <v>4.9251590681293297E-2</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+        <v>4.8549253856912999E-2</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1346077</v>
+      </c>
+      <c r="G90" s="6">
+        <v>208463</v>
+      </c>
+      <c r="H90" s="5">
+        <v>5.4821646766449954E-2</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.15486706926869712</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B91" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C91">
-        <v>380356</v>
+        <v>353608</v>
       </c>
       <c r="D91">
-        <v>54290</v>
+        <v>54054</v>
       </c>
       <c r="E91">
-        <v>4.8549253856912999E-2</v>
-      </c>
-      <c r="F91" s="7">
-        <v>1346077</v>
-      </c>
-      <c r="G91" s="7">
-        <v>208463</v>
-      </c>
-      <c r="H91" s="6">
-        <v>5.4821646766449954E-2</v>
-      </c>
-      <c r="I91" s="6">
-        <v>0.15486706926869712</v>
-      </c>
+        <v>5.24620483699463E-2</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B92" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C92">
-        <v>353608</v>
+        <v>316574</v>
       </c>
       <c r="D92">
-        <v>54054</v>
+        <v>51823</v>
       </c>
       <c r="E92">
-        <v>5.24620483699463E-2</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+        <v>5.8523441596593499E-2</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B93" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C93">
-        <v>316574</v>
+        <v>295539</v>
       </c>
       <c r="D93">
-        <v>51823</v>
+        <v>48296</v>
       </c>
       <c r="E93">
-        <v>5.8523441596593499E-2</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+        <v>5.9751843242347003E-2</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B94" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C94">
-        <v>295539</v>
+        <v>296328</v>
       </c>
       <c r="D94">
-        <v>48296</v>
+        <v>43638</v>
       </c>
       <c r="E94">
-        <v>5.9751843242347003E-2</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+        <v>5.8904322237520498E-2</v>
+      </c>
+      <c r="F94" s="6">
+        <v>726336</v>
+      </c>
+      <c r="G94" s="6">
+        <v>108379</v>
+      </c>
+      <c r="H94" s="5">
+        <v>5.5076002595836497E-2</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.14921331174552824</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B95" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="C95">
-        <v>296328</v>
+        <v>216720</v>
       </c>
       <c r="D95">
-        <v>43638</v>
+        <v>32663</v>
       </c>
       <c r="E95">
-        <v>5.8904322237520498E-2</v>
-      </c>
-      <c r="F95" s="7">
-        <v>726336</v>
-      </c>
-      <c r="G95" s="7">
-        <v>108379</v>
-      </c>
-      <c r="H95" s="6">
-        <v>5.5076002595836497E-2</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0.14921331174552824</v>
-      </c>
+        <v>5.7428940568475403E-2</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B96" s="2">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C96">
-        <v>216720</v>
+        <v>131024</v>
       </c>
       <c r="D96">
-        <v>32663</v>
+        <v>20422</v>
       </c>
       <c r="E96">
-        <v>5.7428940568475403E-2</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
+        <v>5.36084992062522E-2</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B97" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C97">
-        <v>131024</v>
+        <v>82264</v>
       </c>
       <c r="D97">
-        <v>20422</v>
+        <v>11656</v>
       </c>
       <c r="E97">
-        <v>5.36084992062522E-2</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C98">
-        <v>82264</v>
-      </c>
-      <c r="D98">
-        <v>11656</v>
-      </c>
-      <c r="E98">
         <v>5.0362248371097901E-2</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E98" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="96">
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="I83:I86"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="H90:H93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5600,7 +5595,7 @@
   <dimension ref="A1:BE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5632,280 +5627,280 @@
       <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>28038.959999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>14906.41</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>6885.35</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>14456.31</v>
       </c>
       <c r="F2">
         <v>64287.029999999992</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>393.35</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>953.41</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>589.41</v>
       </c>
       <c r="F3">
         <v>1936.17</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>18996.79</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>10198.64</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>10177.57</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>18885.599999999999</v>
       </c>
       <c r="F4">
         <v>58258.6</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>16311.3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>6203.15</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4158.54</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>6876.81</v>
       </c>
       <c r="F5">
@@ -5913,19 +5908,19 @@
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>66920.160000000003</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>45550.59</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>52038.9</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>91497.46</v>
       </c>
       <c r="F6">
@@ -5933,19 +5928,19 @@
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>12099.48</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4894.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>5867.48</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>10554.28</v>
       </c>
       <c r="F7">
@@ -5953,19 +5948,19 @@
       </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>8366.36</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>4129.4799999999996</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>5682.59</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>10099.02</v>
       </c>
       <c r="F8">
@@ -5973,19 +5968,19 @@
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>745.23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1905.62</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1129.3399999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2882.36</v>
       </c>
       <c r="F9">
@@ -5993,19 +5988,19 @@
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>80543.66</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>39309.519999999997</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>32236.27</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>69619.39</v>
       </c>
       <c r="F10">
@@ -6013,19 +6008,19 @@
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>68971.77</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>31427.77</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>23061.15</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>41100.379999999997</v>
       </c>
       <c r="F11">
@@ -6033,19 +6028,19 @@
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3436.92</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1514.67</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1287.8599999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>771.01</v>
       </c>
       <c r="F12">
@@ -6053,19 +6048,19 @@
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3522.82</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3656.97</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2010.28</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>4864.22</v>
       </c>
       <c r="F13">
@@ -6073,19 +6068,19 @@
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>39973.74</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>14813.56</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>14307.73</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>23276.2</v>
       </c>
       <c r="F14">
@@ -6093,19 +6088,19 @@
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>20299.86</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>8658.57</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>6310.15</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>14650.39</v>
       </c>
       <c r="F15">
@@ -6113,19 +6108,19 @@
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>6258.35</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3903.26</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1602.91</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>4698.26</v>
       </c>
       <c r="F16">
@@ -6133,19 +6128,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10391.049999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>4072.2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>2725.6</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>7239.69</v>
       </c>
       <c r="F17">
@@ -6153,19 +6148,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>20764.72</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>12454.22</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6813.58</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>10687.9</v>
       </c>
       <c r="F18">
@@ -6173,19 +6168,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>23685.03</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>12183.32</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>6098.94</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>14218.7</v>
       </c>
       <c r="F19">
@@ -6193,19 +6188,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>2759.56</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2525.61</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1960.56</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>2252.9699999999998</v>
       </c>
       <c r="F20">
@@ -6213,19 +6208,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>25559.759999999998</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>14541.73</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>12707.78</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>27647.27</v>
       </c>
       <c r="F21">
@@ -6233,19 +6228,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>7426.14</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>8207.16</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>9494.27</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>17715.560000000001</v>
       </c>
       <c r="F22">
@@ -6253,19 +6248,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>20695.73</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>13231.95</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>14158.93</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>22754.39</v>
       </c>
       <c r="F23">
@@ -6273,19 +6268,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>13260.18</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>5461.17</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>8330.98</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>9625.59</v>
       </c>
       <c r="F24">
@@ -6293,19 +6288,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>17797.68</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>7512.55</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>3441.87</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>5017.66</v>
       </c>
       <c r="F25">
@@ -6313,19 +6308,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>17683.419999999998</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>8135.31</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>9039.8799999999992</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>15696.47</v>
       </c>
       <c r="F26">
@@ -6333,19 +6328,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>1345.14</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>526.29999999999995</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>2263.0300000000002</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>1657.78</v>
       </c>
       <c r="F27">
@@ -6353,19 +6348,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>7138.41</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>2967.1</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>2962.08</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>4337.13</v>
       </c>
       <c r="F28">
@@ -6373,19 +6368,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>12448</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>3209.46</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>4024.13</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>6654.46</v>
       </c>
       <c r="F29">
@@ -6393,19 +6388,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>3591.42</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1456.17</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1910.79</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>2137.31</v>
       </c>
       <c r="F30">
@@ -6413,19 +6408,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>29342.21</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>14300.11</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>17688.36</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>31561.74</v>
       </c>
       <c r="F31">
@@ -6433,19 +6428,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>3065.33</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>1735.23</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>1835.18</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>3043.39</v>
       </c>
       <c r="F32">
@@ -6453,19 +6448,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>40341.74</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>28456.959999999999</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>31761.83</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>67264.289999999994</v>
       </c>
       <c r="F33">
@@ -6473,19 +6468,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>45278.81</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>26509.31</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>17400.59</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>25025.599999999999</v>
       </c>
       <c r="F34">
@@ -6493,19 +6488,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>2667.39</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>630.98</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>733.87</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>1941.61</v>
       </c>
       <c r="F35">
@@ -6513,19 +6508,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>35931.58</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>19576.84</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>11212.13</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>28354.51</v>
       </c>
       <c r="F36">
@@ -6533,19 +6528,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>12336.6</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>6853.89</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>4387.1499999999996</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>5508.55</v>
       </c>
       <c r="F37">
@@ -6553,19 +6548,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>7914.87</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>4026.79</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>5453.2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>7996.76</v>
       </c>
       <c r="F38">
@@ -6573,19 +6568,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>43684.73</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>28118.45</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>18078.37</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>40438.14</v>
       </c>
       <c r="F39">
@@ -6593,19 +6588,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>1071.53</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>4439.67</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>3984.68</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>1964.74</v>
       </c>
       <c r="F40">
@@ -6613,19 +6608,19 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>20049.78</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>9237.2900000000009</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>9024.65</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>11315.35</v>
       </c>
       <c r="F41">
@@ -6633,19 +6628,19 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>2942.59</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>574.44000000000005</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>534.97</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>831.78</v>
       </c>
       <c r="F42">
@@ -6653,19 +6648,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>38454.03</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>11611.81</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>11841.8</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>19582.78</v>
       </c>
       <c r="F43">
@@ -6673,19 +6668,19 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>94493.42</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>47948.36</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>46756.57</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>84074.47</v>
       </c>
       <c r="F44">
@@ -6693,19 +6688,19 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>1295.6199999999999</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>7346.53</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>7078.84</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>8727.9500000000007</v>
       </c>
       <c r="F45">
@@ -6713,19 +6708,19 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>26821.78</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>1309.0999999999999</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>610.28</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>1484.43</v>
       </c>
       <c r="F46">
@@ -6733,19 +6728,19 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>13485.53</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>15604.94</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>12669.84</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>24203.56</v>
       </c>
       <c r="F47">
@@ -6753,19 +6748,19 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>11615.47</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>7283.52</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>10609.74</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>15702.89</v>
       </c>
       <c r="F48">
@@ -6773,19 +6768,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>14352.9</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>4058.79</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>1725.84</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>5297.9</v>
       </c>
       <c r="F49">
@@ -6793,19 +6788,19 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>1350.65</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>9744.4500000000007</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>10462.379999999999</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>10528.14</v>
       </c>
       <c r="F50">
@@ -6813,16 +6808,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>1424.38</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>819.85</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>1704.95</v>
       </c>
       <c r="F51">
